--- a/biology/Médecine/1164_en_santé_et_médecine/1164_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1164_en_santé_et_médecine/1164_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1164_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1164_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1164 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1164_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1164_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Fondation de l'hôpital-hospice de Sézanne par Henri Ier, comte de Champagne[1].
-Fondation à Soutra (en) en Écosse, par le roi Malcolm IV, d'un hôpital destiné au repos des pèlerins et placé sous l'invocation de la Sainte Trinité (House of the Holy Trinity[2]).
-Manasser Biset (en), intendant du roi Henri II, fonde un hôpital pour lépreuses à un mille au nord du village de Bradley (en) dans le Sud-Ouest du Wiltshire, en Angleterre[3].
-Vers 1164 : fondation d'une léproserie à Maldon, dans le comté d'Essex en Angleterre, par le roi Henri II[4].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Fondation de l'hôpital-hospice de Sézanne par Henri Ier, comte de Champagne.
+Fondation à Soutra (en) en Écosse, par le roi Malcolm IV, d'un hôpital destiné au repos des pèlerins et placé sous l'invocation de la Sainte Trinité (House of the Holy Trinity).
+Manasser Biset (en), intendant du roi Henri II, fonde un hôpital pour lépreuses à un mille au nord du village de Bradley (en) dans le Sud-Ouest du Wiltshire, en Angleterre.
+Vers 1164 : fondation d'une léproserie à Maldon, dans le comté d'Essex en Angleterre, par le roi Henri II.</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1164_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1164_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>À Thanington, paroisse de Cantorbéry dans le Kent en Angleterre, le pape Alexandre III interdit aux directeurs de l'hôpital St. James d'admettre des femmes qui ne seraient pas atteintes de la lèpre[5].
-Deux plaignants sont fondés à réclamer des dommages et intérêts pour faute professionnelle, à un médecin qu'ils accusent de s'être servi de médicaments frelatés (« unwholesome medicine »), ce qui constitue l'un des premiers cas connus, en Angleterre, de cette sorte de jugement[6].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>À Thanington, paroisse de Cantorbéry dans le Kent en Angleterre, le pape Alexandre III interdit aux directeurs de l'hôpital St. James d'admettre des femmes qui ne seraient pas atteintes de la lèpre.
+Deux plaignants sont fondés à réclamer des dommages et intérêts pour faute professionnelle, à un médecin qu'ils accusent de s'être servi de médicaments frelatés (« unwholesome medicine »), ce qui constitue l'un des premiers cas connus, en Angleterre, de cette sorte de jugement.</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1164_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1164_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,10 +591,12 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Fl. Guillaume, médecin nommé dans une charte de confirmation des biens de l'abbaye de Balances par Jean Ier, comte de Ponthieu[7].
-Vers 1164 : fl. Jean Bourgouin, mire établi à Tours, près de l'église Sainte-Croix[7].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fl. Guillaume, médecin nommé dans une charte de confirmation des biens de l'abbaye de Balances par Jean Ier, comte de Ponthieu.
+Vers 1164 : fl. Jean Bourgouin, mire établi à Tours, près de l'église Sainte-Croix.</t>
         </is>
       </c>
     </row>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1164_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1164_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,9 +624,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hébat-Allah (né à une date inconnue), médecin juif converti à l'islam, au service d'Al-Mustanjid, calife de Bagdad, et auteur de divers ouvrages[8] dont peut-être l'Acrabadin, recueil de médicaments composés[9].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hébat-Allah (né à une date inconnue), médecin juif converti à l'islam, au service d'Al-Mustanjid, calife de Bagdad, et auteur de divers ouvrages dont peut-être l'Acrabadin, recueil de médicaments composés.
 </t>
         </is>
       </c>
